--- a/docs/schedule/캡스톤디자인 일정표.xlsx
+++ b/docs/schedule/캡스톤디자인 일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\CapstoneDesign\docs\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108B79E-6392-458E-B647-E58F2D69CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3059D9CB-47F2-4DEA-BA03-2E9DCF5D06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{42F92899-9789-41FB-BF29-8A8B6D8E8580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42F92899-9789-41FB-BF29-8A8B6D8E8580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,69 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -789,6 +726,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,6 +736,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,68 +1122,68 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="3.75" customWidth="1"/>
+    <col min="4" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="24">
         <v>3</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="45">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="24">
         <v>4</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="45">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="24">
         <v>5</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="51"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1230,11 +1230,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1265,9 +1265,9 @@
       <c r="T3" s="16"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,9 +1296,9 @@
       <c r="T4" s="16"/>
       <c r="U4" s="17"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1327,11 +1327,11 @@
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1362,9 +1362,9 @@
       <c r="T6" s="12"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="42"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,11 +1393,11 @@
       <c r="T7" s="16"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1426,9 +1426,9 @@
       <c r="T8" s="16"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1457,9 +1457,9 @@
       <c r="T9" s="12"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1488,9 +1488,9 @@
       <c r="T10" s="12"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1519,9 +1519,9 @@
       <c r="T11" s="16"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="31"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>44693</v>
       </c>
       <c r="F12" s="14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="16"/>
@@ -1550,11 +1550,11 @@
       <c r="T12" s="12"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1585,9 +1585,9 @@
       <c r="T13" s="16"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14" s="47"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>44623</v>
       </c>
       <c r="E14" s="13">
-        <v>44708</v>
+        <v>44673</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
@@ -1610,14 +1610,14 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>44702</v>
       </c>
       <c r="E15" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -1649,9 +1649,9 @@
       <c r="T15" s="12"/>
       <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="47"/>
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1660,9 +1660,7 @@
       <c r="D16" s="13">
         <v>44679</v>
       </c>
-      <c r="E16" s="13">
-        <v>44708</v>
-      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
         <v>43</v>
       </c>
@@ -1682,18 +1680,16 @@
       <c r="T16" s="12"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="13">
         <v>44679</v>
       </c>
-      <c r="E17" s="13">
-        <v>44708</v>
-      </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="14" t="s">
         <v>43</v>
       </c>
@@ -1713,18 +1709,16 @@
       <c r="T17" s="12"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="47"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="13">
         <v>44679</v>
       </c>
-      <c r="E18" s="13">
-        <v>44708</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="14" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1738,9 @@
       <c r="T18" s="12"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="47"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>44658</v>
       </c>
       <c r="E19" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F19" s="14">
         <v>0.3</v>
@@ -1775,8 +1769,8 @@
       <c r="T19" s="12"/>
       <c r="U19" s="22"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>44704</v>
       </c>
       <c r="E20" s="13">
-        <v>44708</v>
+        <v>44706</v>
       </c>
       <c r="F20" s="14">
         <v>1</v>
@@ -1808,9 +1802,9 @@
       <c r="T20" s="16"/>
       <c r="U20" s="22"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="47"/>
+      <c r="B21" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1841,9 +1835,9 @@
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="48"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>44654</v>
       </c>
       <c r="E22" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F22" s="14">
         <v>0.2</v>
@@ -1872,8 +1866,8 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1886,7 +1880,7 @@
         <v>44651</v>
       </c>
       <c r="E23" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F23" s="14">
         <v>0.8</v>
@@ -1907,9 +1901,9 @@
       <c r="T23" s="12"/>
       <c r="U23" s="22"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="50"/>
+      <c r="B24" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1919,7 +1913,7 @@
         <v>44677</v>
       </c>
       <c r="E24" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F24" s="14">
         <v>0.5</v>
@@ -1940,9 +1934,9 @@
       <c r="T24" s="12"/>
       <c r="U24" s="22"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="31"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="51"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>44693</v>
       </c>
       <c r="E25" s="13">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F25" s="14">
         <v>0.2</v>
@@ -1971,11 +1965,11 @@
       <c r="T25" s="12"/>
       <c r="U25" s="22"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1985,7 +1979,7 @@
         <v>44669</v>
       </c>
       <c r="E26" s="13">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="F26" s="14">
         <v>1</v>
@@ -2006,9 +2000,9 @@
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2010,7 @@
         <v>44697</v>
       </c>
       <c r="E27" s="15">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="F27" s="20">
         <v>1</v>
@@ -2039,6 +2033,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="H1:L1"/>
@@ -2047,21 +2056,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F16:F18">
